--- a/data/CR_Steelhead_returns_forecasts.xlsx
+++ b/data/CR_Steelhead_returns_forecasts.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/thomas_buehrens_dfw_wa_gov/Documents/Documents/Scripts/Salmon_Forecast_Example_laptop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B86867F-2CA8-40D3-9F64-1A02A234F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{7B86867F-2CA8-40D3-9F64-1A02A234F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{405FF584-F537-4BF2-8642-57DC6FADCE62}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{470EEADD-3264-4453-922E-99D1015BDC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CR_Steelhead" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CR_Steelhead!$A$1:$L$563</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAC65E2-BA3B-4F69-AD0D-90ED191CF00F}">
   <dimension ref="A1:L563"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9211,7 +9214,9 @@
       <c r="H250" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I250" s="5"/>
+      <c r="I250" s="5">
+        <v>35723</v>
+      </c>
       <c r="J250" s="2" t="s">
         <v>18</v>
       </c>
@@ -9245,7 +9250,9 @@
       <c r="H251" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I251" s="5"/>
+      <c r="I251" s="5">
+        <v>1947</v>
+      </c>
       <c r="J251" s="2" t="s">
         <v>18</v>
       </c>
@@ -9279,7 +9286,9 @@
       <c r="H252" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I252" s="5"/>
+      <c r="I252" s="5">
+        <v>19626</v>
+      </c>
       <c r="J252" s="2" t="s">
         <v>18</v>
       </c>
@@ -9311,7 +9320,9 @@
         <v>17</v>
       </c>
       <c r="H253" s="2"/>
-      <c r="I253" s="5"/>
+      <c r="I253" s="5">
+        <v>57296</v>
+      </c>
       <c r="J253" s="2" t="s">
         <v>18</v>
       </c>
@@ -9345,7 +9356,9 @@
       <c r="H254" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I254" s="5"/>
+      <c r="I254" s="5">
+        <v>8504</v>
+      </c>
       <c r="J254" s="2" t="s">
         <v>18</v>
       </c>
@@ -9379,7 +9392,9 @@
       <c r="H255" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I255" s="5"/>
+      <c r="I255" s="5">
+        <v>816</v>
+      </c>
       <c r="J255" s="2" t="s">
         <v>18</v>
       </c>
@@ -9413,7 +9428,9 @@
       <c r="H256" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I256" s="5"/>
+      <c r="I256" s="5">
+        <v>1136</v>
+      </c>
       <c r="J256" s="2" t="s">
         <v>18</v>
       </c>
@@ -9445,7 +9462,9 @@
         <v>17</v>
       </c>
       <c r="H257" s="2"/>
-      <c r="I257" s="5"/>
+      <c r="I257" s="5">
+        <v>10456</v>
+      </c>
       <c r="J257" s="2" t="s">
         <v>18</v>
       </c>
@@ -9479,7 +9498,9 @@
       <c r="H258" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I258" s="5"/>
+      <c r="I258" s="5">
+        <v>798</v>
+      </c>
       <c r="J258" s="2" t="s">
         <v>18</v>
       </c>
@@ -9513,7 +9534,9 @@
       <c r="H259" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I259" s="5"/>
+      <c r="I259" s="5">
+        <v>0</v>
+      </c>
       <c r="J259" s="2" t="s">
         <v>18</v>
       </c>
@@ -9547,7 +9570,9 @@
       <c r="H260" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I260" s="5"/>
+      <c r="I260" s="5">
+        <v>1119</v>
+      </c>
       <c r="J260" s="2" t="s">
         <v>18</v>
       </c>
@@ -9579,7 +9604,9 @@
         <v>17</v>
       </c>
       <c r="H261" s="2"/>
-      <c r="I261" s="5"/>
+      <c r="I261" s="5">
+        <v>1917</v>
+      </c>
       <c r="J261" s="2" t="s">
         <v>18</v>
       </c>

--- a/data/CR_Steelhead_returns_forecasts.xlsx
+++ b/data/CR_Steelhead_returns_forecasts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/thomas_buehrens_dfw_wa_gov/Documents/Documents/Scripts/Salmon_Forecast_Example_laptop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7B86867F-2CA8-40D3-9F64-1A02A234F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{405FF584-F537-4BF2-8642-57DC6FADCE62}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{7B86867F-2CA8-40D3-9F64-1A02A234F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5D218AA-279B-48E2-94EA-9B2D6AB65D24}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{470EEADD-3264-4453-922E-99D1015BDC7F}"/>
   </bookViews>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAC65E2-BA3B-4F69-AD0D-90ED191CF00F}">
   <dimension ref="A1:L563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
